--- a/trend_results/Rivers/KahuterawaatKeeblesFarm_11a2b2e9b3.xlsx
+++ b/trend_results/Rivers/KahuterawaatKeeblesFarm_11a2b2e9b3.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.791297282434572</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.810984379509112</v>
+        <v>0.189015620490888</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.577454957599982</v>
+        <v>0.422545042400018</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.382328848422317</v>
+        <v>0.617671151577683</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>

--- a/trend_results/Rivers/KahuterawaatKeeblesFarm_11a2b2e9b3.xlsx
+++ b/trend_results/Rivers/KahuterawaatKeeblesFarm_11a2b2e9b3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.531468085363102</v>
+        <v>0.097119830474756</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.75</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.179926108374384</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.197193532012543</v>
+        <v>-0.440403303248808</v>
       </c>
       <c r="M2" t="n">
-        <v>0.183102839492059</v>
+        <v>0.0347824755320872</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-14.993842364532</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.208702717565428</v>
+        <v>0.187521811779306</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.14</v>
+        <v>10.155</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0526802884615387</v>
+        <v>-0.0474032613380585</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.142441106738145</v>
+        <v>-0.144176326310113</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0195926200731593</v>
+        <v>0.0174454222699706</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.5195294720072851</v>
+        <v>-0.46679725591392</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,28 +755,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.462435931372501</v>
+        <v>0.414443568597753</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.379310344827586</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0008256296799616</v>
+        <v>-0.0003532012607885</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0009122380186469</v>
+        <v>0.0006604882459312</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.40973409180807</v>
+        <v>0.505353885031783</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.741379310344828</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>176.5</v>
+        <v>145</v>
       </c>
       <c r="K5" t="n">
-        <v>1.02310924369748</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-23.0717013181088</v>
+        <v>-18.5406921285582</v>
       </c>
       <c r="M5" t="n">
-        <v>24.6318979088706</v>
+        <v>25.565847201632</v>
       </c>
       <c r="N5" t="n">
-        <v>0.579665293879591</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.542624534408622</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.82</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.983587200766917</v>
+        <v>0.999574090903355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.362068965517241</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="H7" t="n">
         <v>0.137931034482759</v>
@@ -1040,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0002775455927051</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0006338005524157</v>
+        <v>-0.000558397595243</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-13.8772796352584</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0162620906326638</v>
+        <v>0.470616203057875</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H8" t="n">
-        <v>0.948275862068966</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.106</v>
+        <v>0.0975</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0089591414272715</v>
+        <v>0.0009891894493645999</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0018342600088727</v>
+        <v>-0.0074392145815916</v>
       </c>
       <c r="M8" t="n">
-        <v>0.016380293535034</v>
+        <v>0.0088580092068655</v>
       </c>
       <c r="N8" t="n">
-        <v>8.452020214407121</v>
+        <v>1.01455328139964</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.189015620490888</v>
+        <v>0.031036648818199</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.754385964912281</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.58</v>
+        <v>7.545</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0297316210575135</v>
+        <v>-0.0401373626373636</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0756072082798183</v>
+        <v>-0.0781341453971276</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0190709959259554</v>
+        <v>-0.0067304994948874</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.392237744822078</v>
+        <v>-0.5319729971817569</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0380207379151217</v>
+        <v>0.441232841643137</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1195</v>
+        <v>0.11225</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009532623626373599</v>
+        <v>0.0014955945839874</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008774190870314</v>
+        <v>-0.0051134622969414</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0180242248573692</v>
+        <v>0.0098584317096397</v>
       </c>
       <c r="N10" t="n">
-        <v>7.97709090073107</v>
+        <v>1.33237824854115</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,43 +1373,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.566259329549367</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.379310344827586</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.327586206896552</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.235</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0131342941347163</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0123653195745927</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.47023704237969</v>
+        <v>0.363357957628981</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.672413793103448</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.275</v>
+        <v>0.018</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0196925700159237</v>
+        <v>-0.0009306457129417001</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0268016479004806</v>
+        <v>0.0016831797235023</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.248461847502495</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.568965517241379</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.021</v>
+        <v>1.235</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000668956043956</v>
+        <v>0.122666473653735</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0010435714285714</v>
+        <v>-0.101520598990335</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0020871428571428</v>
+        <v>0.374853681813068</v>
       </c>
       <c r="N13" t="n">
-        <v>3.18550497121926</v>
+        <v>9.93250798815667</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.401989421767876</v>
+        <v>7.64273822370098e-05</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982758620689655</v>
+        <v>0.606741573033708</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.365</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0282046332046332</v>
+        <v>-0.253276087220603</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.275728967888857</v>
+        <v>-0.383125414610327</v>
       </c>
       <c r="M14" t="n">
-        <v>0.312284619200385</v>
+        <v>-0.140334918332652</v>
       </c>
       <c r="N14" t="n">
-        <v>1.19258491351515</v>
+        <v>-14.8985933659178</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.000202272299325</v>
+        <v>0.599562679751574</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.613636363636364</v>
+        <v>0.893805309734513</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.725</v>
+        <v>10.11</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.246168379513968</v>
+        <v>0.0098450134770887</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.378382542949086</v>
+        <v>-0.0282632433945322</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.129324259305216</v>
+        <v>0.0410086220001458</v>
       </c>
       <c r="N15" t="n">
-        <v>-14.2706306964619</v>
+        <v>0.097378966143311</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.629922386661065</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0530973451327434</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.20353982300885</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.422545042400018</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9019607843137259</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.095</v>
+        <v>0.008</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0047743301219327</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0366180715626432</v>
+        <v>-0.0002248236251604</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0354150096556879</v>
+        <v>0.0001390146444889</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0472940081419788</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.207208374570061</v>
+        <v>0.670079640252018</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0267857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.215686274509804</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008999999999999999</v>
+        <v>160.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1.99564063362408</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-9.58383964778819</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0004276932084309</v>
+        <v>6.36338126794794</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-1.24338980288104</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.37785609536686</v>
+        <v>0.496204578236333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0297029702970297</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H18" t="n">
-        <v>0.663366336633663</v>
+        <v>0.152380952380952</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>161</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>1.28064854400258</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-7.14503133792423</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>11.9655017779504</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.795433878262473</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.374239352571051</v>
+        <v>0.999958672749785</v>
       </c>
       <c r="G19" t="n">
-        <v>0.851063829787234</v>
+        <v>0.353982300884956</v>
       </c>
       <c r="H19" t="n">
-        <v>0.159574468085106</v>
+        <v>0.123893805309735</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0002490638121277</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0004108548931383</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-8.302127070924071</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9960533921092</v>
+        <v>0.888050134161778</v>
       </c>
       <c r="G20" t="n">
-        <v>0.294117647058824</v>
+        <v>0.079646017699115</v>
       </c>
       <c r="H20" t="n">
-        <v>0.137254901960784</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.112</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.000173350735643</v>
+        <v>-0.0029123479199372</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0004124698375924</v>
+        <v>-0.0070943319949562</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.08828778925502e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>-5.77835785476982</v>
+        <v>-2.60031064280108</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.277902758265314</v>
+        <v>0.521062151461919</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0686274509803922</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.862745098039216</v>
+        <v>0.616071428571429</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1239</v>
+        <v>7.51</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0009986558084772001</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0047007935100841</v>
+        <v>-0.0178388278388279</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0041331895903613</v>
+        <v>0.0168301847925552</v>
       </c>
       <c r="N21" t="n">
-        <v>0.806017601676543</v>
+        <v>0</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.617671151577683</v>
+        <v>0.816306485374846</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0353982300884956</v>
       </c>
       <c r="H22" t="n">
-        <v>0.653465346534653</v>
+        <v>0.823008849557522</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.51</v>
+        <v>0.126</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004132972358904</v>
+        <v>-0.0014951002814919</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0184376577486118</v>
+        <v>-0.0061173505193156</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0242333474139038</v>
+        <v>0.0018015847946896</v>
       </c>
       <c r="N22" t="n">
-        <v>0.055032920890866</v>
+        <v>-1.18658752499358</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.300203093702361</v>
+        <v>0.935829208948742</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.823529411764706</v>
+        <v>0.601769911504425</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1375</v>
+        <v>0.28</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0019934670419892</v>
+        <v>-0.0042569056302892</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0034262358703097</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0059669838025473</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.44979421235579</v>
+        <v>-1.52032343938902</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,32 +2563,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.202994752721352</v>
+        <v>0.356455194518271</v>
       </c>
       <c r="G24" t="n">
-        <v>0.313725490196078</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.215686274509804</v>
+        <v>0.371681415929204</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>0.018</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0003033888238411</v>
       </c>
       <c r="M24" t="n">
-        <v>0.129986797909406</v>
+        <v>0.0005435267857142</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.664828366464621</v>
+        <v>0.06517819150100169</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.637254901960784</v>
+        <v>0.876106194690266</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3</v>
+        <v>1.26</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0020562791127558</v>
+        <v>0.0412896314212104</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0099733966119169</v>
+        <v>-0.0045313367846681</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0049959632826569</v>
+        <v>0.130418288735398</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.685426370918627</v>
+        <v>3.27695487469924</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0431259099127544</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.392156862745098</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.018</v>
+        <v>0.45</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005360812133072</v>
+        <v>0.0467541262594694</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0024012165886657</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0011944789878723</v>
+        <v>0.0764397599397766</v>
       </c>
       <c r="N26" t="n">
-        <v>2.978228962818</v>
+        <v>10.3898058354377</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2811,11 +2811,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2825,46 +2821,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0095226632187097</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.911764705882353</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.39</v>
+        <v>111</v>
       </c>
       <c r="K27" t="n">
-        <v>0.109737376063876</v>
+        <v>1.76036535938571</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0100245241722016</v>
+        <v>-1.57868645012136</v>
       </c>
       <c r="M27" t="n">
-        <v>0.260835273813475</v>
+        <v>5.10062836115057</v>
       </c>
       <c r="N27" t="n">
-        <v>7.89477525639399</v>
+        <v>1.58591473818532</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2869,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,11 +2898,7 @@
           <t>Mana_11c</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2916,7 +2908,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,7 +2923,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.889664319040077</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2943,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.401</v>
+        <v>5.161</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0287222322763396</v>
+        <v>0.0741684864457833</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.062244053887826</v>
+        <v>-0.584405720066954</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0764397599397766</v>
+        <v>0.466664538943914</v>
       </c>
       <c r="N28" t="n">
-        <v>7.16265144048369</v>
+        <v>1.43709526149551</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2956,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3003,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,7 +3010,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.768783636774762</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3030,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.17</v>
+        <v>0.457</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2700358784424</v>
+        <v>-0.0022075549450549</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.77820181083349</v>
+        <v>-0.0392566134594921</v>
       </c>
       <c r="M29" t="n">
-        <v>6.25484110323458</v>
+        <v>0.0198718049560526</v>
       </c>
       <c r="N29" t="n">
-        <v>2.99536125166474</v>
+        <v>-0.483053598480295</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3090,11 +3082,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,7 +3097,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.986256831944245</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3117,19 +3109,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.161</v>
+        <v>110.085</v>
       </c>
       <c r="K30" t="n">
-        <v>0.497415130490956</v>
+        <v>0.518575485092286</v>
       </c>
       <c r="L30" t="n">
-        <v>0.08229199860967951</v>
+        <v>-0.927433846156503</v>
       </c>
       <c r="M30" t="n">
-        <v>0.80624509756274</v>
+        <v>1.91908921898848</v>
       </c>
       <c r="N30" t="n">
-        <v>9.637960288528509</v>
+        <v>0.471068251889254</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3130,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3169,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,7 +3184,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.377227088747045</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3204,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.45</v>
+        <v>5.0915</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0069938707562034</v>
+        <v>0.0255817120622569</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0403078152685933</v>
+        <v>-0.175792070405123</v>
       </c>
       <c r="M31" t="n">
-        <v>0.020348340193088</v>
+        <v>0.163235291597209</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.55419350137854</v>
+        <v>0.502439596626866</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3255,180 +3247,6 @@
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Kahuterawa at Keebles Farm</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.541517381685568</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>109.17</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.171921703296703</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-1.95908852213341</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2.57380386537492</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.1574807211658</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>1819903.14</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5525365.14</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Mana_11c</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Kahuterawa at Keebles Farm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.767243915062907</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.161</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.06812202380952399</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.262911476335133</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.405399344122455</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.31993845784778</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1819903.14</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5525365.14</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Mana_11c</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/KahuterawaatKeeblesFarm_11a2b2e9b3.xlsx
+++ b/trend_results/Rivers/KahuterawaatKeeblesFarm_11a2b2e9b3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -136,49 +136,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Palmerston North City</t>
@@ -657,31 +660,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.097119830474756</v>
+        <v>0.047065347654673</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.86046511627907</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>-0.179926108374384</v>
+        <v>-0.274061734693878</v>
       </c>
       <c r="L2">
-        <v>-0.440403303248808</v>
+        <v>-0.6214020990436731</v>
       </c>
       <c r="M2">
-        <v>0.0347824755320872</v>
+        <v>-0.0071098226993173</v>
       </c>
       <c r="N2">
-        <v>-14.993842364532</v>
+        <v>-34.2577168367347</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -696,19 +699,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,7 +731,7 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.187521811779306</v>
+        <v>0.930355317156576</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.155</v>
+        <v>10.18</v>
       </c>
       <c r="K3">
-        <v>-0.0474032613380585</v>
+        <v>0.0602060439560442</v>
       </c>
       <c r="L3">
-        <v>-0.144176326310113</v>
+        <v>-0.0081257629409485</v>
       </c>
       <c r="M3">
-        <v>0.0174454222699706</v>
+        <v>0.120832137841763</v>
       </c>
       <c r="N3">
-        <v>-0.46679725591392</v>
+        <v>0.5914149700986659</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -767,19 +770,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -796,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>0.414443568597753</v>
+        <v>0.944944853016697</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.344827586206897</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L4">
-        <v>-0.0003532012607885</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="M4">
-        <v>0.0006604882459312</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-4.74782269595736</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -838,19 +841,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,34 +870,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>0.505353885031783</v>
+        <v>0.913403802220454</v>
       </c>
       <c r="G5">
         <v>0.0344827586206897</v>
       </c>
       <c r="H5">
-        <v>0.810344827586207</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>145</v>
+        <v>136.2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-15.4603174603175</v>
       </c>
       <c r="L5">
-        <v>-18.5406921285582</v>
+        <v>-42.4344705521697</v>
       </c>
       <c r="M5">
-        <v>25.565847201632</v>
+        <v>3.7110501973021</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-11.3511875626413</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -909,19 +912,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.96594838142227</v>
       </c>
       <c r="G6">
-        <v>0.851851851851852</v>
+        <v>0.872727272727273</v>
       </c>
       <c r="H6">
-        <v>0.166666666666667</v>
+        <v>0.145454545454545</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1819903.14</v>
@@ -980,19 +983,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.999574090903355</v>
+        <v>0.999999584234632</v>
       </c>
       <c r="G7">
-        <v>0.46551724137931</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="H7">
         <v>0.137931034482759</v>
@@ -1024,25 +1027,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
-        <v>-0.0002775455927051</v>
+        <v>-0.0002731862378459</v>
       </c>
       <c r="L7">
-        <v>-0.000558397595243</v>
+        <v>-0.0005722282636903</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-13.8772796352584</v>
+        <v>-27.3186237845924</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1819903.14</v>
@@ -1051,19 +1054,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,40 +1083,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>0.470616203057875</v>
+        <v>0.995261813777911</v>
       </c>
       <c r="G8">
-        <v>0.0344827586206897</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H8">
-        <v>0.913793103448276</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0975</v>
+        <v>0.0955</v>
       </c>
       <c r="K8">
-        <v>0.0009891894493645999</v>
+        <v>-0.0085709993131868</v>
       </c>
       <c r="L8">
-        <v>-0.0074392145815916</v>
+        <v>-0.0210401270099217</v>
       </c>
       <c r="M8">
-        <v>0.0088580092068655</v>
+        <v>-0.0025515729169819</v>
       </c>
       <c r="N8">
-        <v>1.01455328139964</v>
+        <v>-8.97486839077153</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1819903.14</v>
@@ -1122,19 +1125,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1157,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.031036648818199</v>
+        <v>0.031052333116774</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.724137931034483</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.545</v>
+        <v>7.505</v>
       </c>
       <c r="K9">
-        <v>-0.0401373626373636</v>
+        <v>-0.0434821428571429</v>
       </c>
       <c r="L9">
-        <v>-0.0781341453971276</v>
+        <v>-0.0802747252747248</v>
       </c>
       <c r="M9">
-        <v>-0.0067304994948874</v>
+        <v>-0.0070893963100686</v>
       </c>
       <c r="N9">
-        <v>-0.5319729971817569</v>
+        <v>-0.579375654325688</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1819903.14</v>
@@ -1193,16 +1196,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,37 +1225,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.441232841643137</v>
+        <v>0.9950633339544041</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H10">
-        <v>0.879310344827586</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0.11225</v>
+        <v>0.10625</v>
       </c>
       <c r="K10">
-        <v>0.0014955945839874</v>
+        <v>-0.0104315333104396</v>
       </c>
       <c r="L10">
-        <v>-0.0051134622969414</v>
+        <v>-0.02279812506294</v>
       </c>
       <c r="M10">
-        <v>0.0098584317096397</v>
+        <v>-0.0026388920222973</v>
       </c>
       <c r="N10">
-        <v>1.33237824854115</v>
+        <v>-9.81791370394312</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1819903.14</v>
@@ -1261,19 +1264,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.974883261543666</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1305,25 +1308,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.015887706043956</v>
       </c>
       <c r="L11">
-        <v>-0.0131342941347163</v>
+        <v>-0.0298389578324914</v>
       </c>
       <c r="M11">
-        <v>0.0123653195745927</v>
+        <v>-0.0003942010210791</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-7.06120268620269</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1819903.14</v>
@@ -1332,19 +1335,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>0.363357957628981</v>
+        <v>0.937249735385122</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1376,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.018</v>
+        <v>0.0175</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0011791767554479</v>
       </c>
       <c r="L12">
-        <v>-0.0009306457129417001</v>
+        <v>-0.0028192769031582</v>
       </c>
       <c r="M12">
-        <v>0.0016831797235023</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-6.73815288827395</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -1403,19 +1406,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,13 +1438,13 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.168937424369248</v>
+        <v>0.865596628226167</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.948275862068966</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1450,22 +1453,22 @@
         <v>1.235</v>
       </c>
       <c r="K13">
-        <v>0.122666473653735</v>
+        <v>-0.136658163265306</v>
       </c>
       <c r="L13">
-        <v>-0.101520598990335</v>
+        <v>-0.369060042756967</v>
       </c>
       <c r="M13">
-        <v>0.374853681813068</v>
+        <v>0.102422706600292</v>
       </c>
       <c r="N13">
-        <v>9.93250798815667</v>
+        <v>-11.0654383210774</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1819903.14</v>
@@ -1474,19 +1477,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1509,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>7.64273822370098E-05</v>
+        <v>4.6779423838017E-05</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.606741573033708</v>
+        <v>0.604651162790698</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K14">
-        <v>-0.253276087220603</v>
+        <v>-0.268859051254089</v>
       </c>
       <c r="L14">
-        <v>-0.383125414610327</v>
+        <v>-0.401373626373626</v>
       </c>
       <c r="M14">
-        <v>-0.140334918332652</v>
+        <v>-0.147170057541251</v>
       </c>
       <c r="N14">
-        <v>-14.8985933659178</v>
+        <v>-16.2944879547933</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>1819903.14</v>
@@ -1545,19 +1548,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1580,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.599562679751574</v>
+        <v>0.890621678013555</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.893805309734513</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.11</v>
+        <v>10.17</v>
       </c>
       <c r="K15">
-        <v>0.0098450134770887</v>
+        <v>0.0224692412850307</v>
       </c>
       <c r="L15">
-        <v>-0.0282632433945322</v>
+        <v>-0.009987134615870299</v>
       </c>
       <c r="M15">
-        <v>0.0410086220001458</v>
+        <v>0.0558192079218371</v>
       </c>
       <c r="N15">
-        <v>0.097378966143311</v>
+        <v>0.220936492478178</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1819903.14</v>
@@ -1616,19 +1619,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,16 +1648,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.629922386661065</v>
+        <v>0.979664315421196</v>
       </c>
       <c r="G16">
-        <v>0.0530973451327434</v>
+        <v>0.0598290598290598</v>
       </c>
       <c r="H16">
-        <v>0.20353982300885</v>
+        <v>0.196581196581197</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1663,22 +1666,22 @@
         <v>0.008</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.0001907815203565</v>
       </c>
       <c r="L16">
-        <v>-0.0002248236251604</v>
+        <v>-0.0003753854059609</v>
       </c>
       <c r="M16">
-        <v>0.0001390146444889</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-2.38476900445748</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1819903.14</v>
@@ -1687,19 +1690,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1722,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.670079640252018</v>
+        <v>0.732533452139063</v>
       </c>
       <c r="G17">
-        <v>0.0267857142857143</v>
+        <v>0.0258620689655172</v>
       </c>
       <c r="H17">
-        <v>0.678571428571429</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>160.5</v>
+        <v>155</v>
       </c>
       <c r="K17">
-        <v>-1.99564063362408</v>
+        <v>-2.74524604265425</v>
       </c>
       <c r="L17">
-        <v>-9.58383964778819</v>
+        <v>-10.089066914087</v>
       </c>
       <c r="M17">
-        <v>6.36338126794794</v>
+        <v>3.92578994145253</v>
       </c>
       <c r="N17">
-        <v>-1.24338980288104</v>
+        <v>-1.77112647913177</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1819903.14</v>
@@ -1758,19 +1761,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.496204578236333</v>
+        <v>0.797345881660634</v>
       </c>
       <c r="G18">
-        <v>0.857142857142857</v>
+        <v>0.871559633027523</v>
       </c>
       <c r="H18">
-        <v>0.152380952380952</v>
+        <v>0.137614678899083</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1820,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1819903.14</v>
@@ -1829,19 +1832,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,40 +1861,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.999958672749785</v>
+        <v>0.999999982604112</v>
       </c>
       <c r="G19">
-        <v>0.353982300884956</v>
+        <v>0.435897435897436</v>
       </c>
       <c r="H19">
-        <v>0.123893805309735</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K19">
-        <v>-0.0002490638121277</v>
+        <v>-0.0003143287435456</v>
       </c>
       <c r="L19">
-        <v>-0.0004108548931383</v>
+        <v>-0.0004485051682562</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0001244488575593</v>
       </c>
       <c r="N19">
-        <v>-8.302127070924071</v>
+        <v>-15.7164371772806</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1819903.14</v>
@@ -1900,19 +1903,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,37 +1935,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.888050134161778</v>
+        <v>0.999900657003477</v>
       </c>
       <c r="G20">
-        <v>0.079646017699115</v>
+        <v>0.094017094017094</v>
       </c>
       <c r="H20">
-        <v>0.831858407079646</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="K20">
-        <v>-0.0029123479199372</v>
+        <v>-0.0069971264367816</v>
       </c>
       <c r="L20">
-        <v>-0.0070943319949562</v>
+        <v>-0.0130739289968733</v>
       </c>
       <c r="M20">
-        <v>2.08828778925502E-05</v>
+        <v>-0.003704748654842</v>
       </c>
       <c r="N20">
-        <v>-2.60031064280108</v>
+        <v>-6.30371751061406</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1819903.14</v>
@@ -1971,19 +1974,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2000,40 +2003,40 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
-        <v>0.521062151461919</v>
+        <v>0.397376182469868</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.616071428571429</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.51</v>
+        <v>7.495</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0026382853103669</v>
       </c>
       <c r="L21">
-        <v>-0.0178388278388279</v>
+        <v>-0.0193253968253969</v>
       </c>
       <c r="M21">
-        <v>0.0168301847925552</v>
+        <v>0.0134164194334897</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-0.0352006045412539</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q21">
         <v>1819903.14</v>
@@ -2042,16 +2045,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2074,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.816306485374846</v>
+        <v>0.999606882370112</v>
       </c>
       <c r="G22">
-        <v>0.0353982300884956</v>
+        <v>0.0427350427350427</v>
       </c>
       <c r="H22">
-        <v>0.823008849557522</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="K22">
-        <v>-0.0014951002814919</v>
+        <v>-0.006597290640394</v>
       </c>
       <c r="L22">
-        <v>-0.0061173505193156</v>
+        <v>-0.012400354382363</v>
       </c>
       <c r="M22">
-        <v>0.0018015847946896</v>
+        <v>-0.00309579841879</v>
       </c>
       <c r="N22">
-        <v>-1.18658752499358</v>
+        <v>-5.32039567773717</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1819903.14</v>
@@ -2110,19 +2113,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,13 +2145,13 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.935829208948742</v>
+        <v>0.998921310450236</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.601769911504425</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2157,22 +2160,22 @@
         <v>0.28</v>
       </c>
       <c r="K23">
-        <v>-0.0042569056302892</v>
+        <v>-0.009970427661510401</v>
       </c>
       <c r="L23">
-        <v>-0.0100343406593407</v>
+        <v>-0.0161082725607425</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.004992664875846</v>
       </c>
       <c r="N23">
-        <v>-1.52032343938902</v>
+        <v>-3.56086702196802</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1819903.14</v>
@@ -2181,19 +2184,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,31 +2213,31 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.356455194518271</v>
+        <v>0.638352397758431</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.371681415929204</v>
+        <v>0.367521367521368</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0003033888238411</v>
+        <v>-0.0004224178702013</v>
       </c>
       <c r="M24">
-        <v>0.0005435267857142</v>
+        <v>0.0002449698189134</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2243,7 +2246,7 @@
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q24">
         <v>1819903.14</v>
@@ -2252,19 +2255,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,13 +2287,13 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.06517819150100169</v>
+        <v>0.344249870548317</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.876106194690266</v>
+        <v>0.854700854700855</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2299,22 +2302,22 @@
         <v>1.26</v>
       </c>
       <c r="K25">
-        <v>0.0412896314212104</v>
+        <v>0.009995894909688</v>
       </c>
       <c r="L25">
-        <v>-0.0045313367846681</v>
+        <v>-0.0323856222522884</v>
       </c>
       <c r="M25">
-        <v>0.130418288735398</v>
+        <v>0.07716307262426531</v>
       </c>
       <c r="N25">
-        <v>3.27695487469924</v>
+        <v>0.793324992832386</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1819903.14</v>
@@ -2323,19 +2326,19 @@
         <v>5525365.14</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,25 +2370,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.45</v>
+        <v>0.464</v>
       </c>
       <c r="K26">
-        <v>0.0467541262594694</v>
+        <v>0.0341830953874577</v>
       </c>
       <c r="L26">
         <v>0.0024012165886657</v>
       </c>
       <c r="M26">
-        <v>0.0764397599397766</v>
+        <v>0.0571966697179164</v>
       </c>
       <c r="N26">
-        <v>10.3898058354377</v>
+        <v>7.36704641971071</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1819903.14</v>
@@ -2394,16 +2397,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2435,25 +2438,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>111</v>
+        <v>112.38</v>
       </c>
       <c r="K27">
-        <v>1.76036535938571</v>
+        <v>1.54484815196557</v>
       </c>
       <c r="L27">
         <v>-1.57868645012136</v>
       </c>
       <c r="M27">
-        <v>5.10062836115057</v>
+        <v>3.11566478934154</v>
       </c>
       <c r="N27">
-        <v>1.58591473818532</v>
+        <v>1.37466466628009</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1819903.14</v>
@@ -2462,16 +2465,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,7 +2494,7 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.59675202974633</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2506,22 +2509,22 @@
         <v>5.161</v>
       </c>
       <c r="K28">
-        <v>0.0741684864457833</v>
+        <v>-0.0735969621442235</v>
       </c>
       <c r="L28">
-        <v>-0.584405720066954</v>
+        <v>-0.944192154671577</v>
       </c>
       <c r="M28">
-        <v>0.466664538943914</v>
+        <v>0.224176510765055</v>
       </c>
       <c r="N28">
-        <v>1.43709526149551</v>
+        <v>-1.42602135524556</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q28">
         <v>1819903.14</v>
@@ -2530,16 +2533,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,7 +2562,7 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.429013828493761</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2574,22 +2577,22 @@
         <v>0.457</v>
       </c>
       <c r="K29">
-        <v>-0.0022075549450549</v>
+        <v>0.0165913429888084</v>
       </c>
       <c r="L29">
-        <v>-0.0392566134594921</v>
+        <v>-0.0100483098430742</v>
       </c>
       <c r="M29">
-        <v>0.0198718049560526</v>
+        <v>0.0237547167775908</v>
       </c>
       <c r="N29">
-        <v>-0.483053598480295</v>
+        <v>3.63049080717908</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q29">
         <v>1819903.14</v>
@@ -2598,16 +2601,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,37 +2630,37 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>0.704247481502542</v>
+        <v>0.79051913742033</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>110.085</v>
+        <v>111.5</v>
       </c>
       <c r="K30">
-        <v>0.518575485092286</v>
+        <v>0.649267451298701</v>
       </c>
       <c r="L30">
-        <v>-0.927433846156503</v>
+        <v>-0.894586181119395</v>
       </c>
       <c r="M30">
-        <v>1.91908921898848</v>
+        <v>2.73239541287927</v>
       </c>
       <c r="N30">
-        <v>0.471068251889254</v>
+        <v>0.582302646904664</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1819903.14</v>
@@ -2666,16 +2669,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2695,7 +2698,7 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.570986171506239</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2707,25 +2710,25 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5.0915</v>
+        <v>5.0805</v>
       </c>
       <c r="K31">
-        <v>0.0255817120622569</v>
+        <v>-0.0266966702761234</v>
       </c>
       <c r="L31">
-        <v>-0.175792070405123</v>
+        <v>-0.246698766296589</v>
       </c>
       <c r="M31">
-        <v>0.163235291597209</v>
+        <v>0.107863439393191</v>
       </c>
       <c r="N31">
-        <v>0.502439596626866</v>
+        <v>-0.525473285623923</v>
       </c>
       <c r="O31" t="s">
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q31">
         <v>1819903.14</v>
@@ -2734,16 +2737,16 @@
         <v>5525365.14</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
